--- a/biology/Botanique/Établissements_Treyve-Marie/Établissements_Treyve-Marie.xlsx
+++ b/biology/Botanique/Établissements_Treyve-Marie/Établissements_Treyve-Marie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89tablissements_Treyve-Marie</t>
+          <t>Établissements_Treyve-Marie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les Établissements Treyve-Marie sont une firme d'architectes paysagers créée en France en 1881 par François-Marie Treyve. Il y a formé deux de ses fils : François, ingénieur agronome, et Joseph, paysagiste, qui s'associent, après la mort de leur père, dans la société Treyve Frères.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89tablissements_Treyve-Marie</t>
+          <t>Établissements_Treyve-Marie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,10 +525,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'origine des établissements Treyve remonte à 1845 lorsque Joseph Marie (1821-1884), venu de la région parisienne, fonde à Moulins une entreprise de création de parcs et jardins. Elle s'illustre vers 1860 quand Napoléon III lui confie l'aménagement des parcs qui bordent l'Allier à Vichy.
-Le gendre de Joseph Marie, François-Marie Treyve (1847-1906), prend sa succession en 1881 et développe l'entreprise, qui reste jusqu'en 1993 la propriété de plusieurs générations de la famille Treyve[2]. En 1993, la société est cédée à Aymar de Seroux qui la dirige jusqu'en 2014. Elle est alors reprise par le groupe Lantana Paysage[3]. En 2019, l'entreprise est en redressement judiciaire ; une nouvelle société, Treyve Paysages, est alors créée par une partie des salariés, sous la direction de Thibaud Dumont, pour assurer la pérennité de l'entreprise.
+Le gendre de Joseph Marie, François-Marie Treyve (1847-1906), prend sa succession en 1881 et développe l'entreprise, qui reste jusqu'en 1993 la propriété de plusieurs générations de la famille Treyve. En 1993, la société est cédée à Aymar de Seroux qui la dirige jusqu'en 2014. Elle est alors reprise par le groupe Lantana Paysage. En 2019, l'entreprise est en redressement judiciaire ; une nouvelle société, Treyve Paysages, est alors créée par une partie des salariés, sous la direction de Thibaud Dumont, pour assurer la pérennité de l'entreprise.
 </t>
         </is>
       </c>
